--- a/Unemployment_Statistics_Number_Industry_Information.xlsx
+++ b/Unemployment_Statistics_Number_Industry_Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boston\class\Homework\OnTheUpAndUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FAA78B0-8443-446F-8F93-4357F2A02141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B0BF7B-6037-465E-A2F8-72E3EC00D7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="945" windowWidth="28515" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="975" windowWidth="24810" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
@@ -230,18 +230,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
@@ -581,7 +581,7 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -602,7 +602,7 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -611,7 +611,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
@@ -624,7 +624,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
@@ -636,7 +636,7 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
@@ -648,7 +648,7 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6"/>
@@ -660,7 +660,7 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6"/>
@@ -672,7 +672,7 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6"/>
@@ -684,7 +684,7 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
@@ -696,7 +696,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6"/>
@@ -708,7 +708,7 @@
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="6"/>
@@ -1237,6 +1237,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
@@ -1245,11 +1250,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
